--- a/Input Data.xlsx
+++ b/Input Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdowd\Documents\_Personal_Directory_\Personal_Files\Personal_Projects\ChemE Scheduling\ChemE-Scheduling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB90982D-F28C-4395-9CBE-B10074E9D534}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C898DFEA-90B1-4818-ABCE-D1EA41AE705C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{E4C747A6-EF44-496D-A099-BCB7F343D08D}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{E4C747A6-EF44-496D-A099-BCB7F343D08D}"/>
   </bookViews>
   <sheets>
     <sheet name="Visitor Preferences" sheetId="2" r:id="rId1"/>
@@ -55,8 +55,8 @@
           </rPr>
           <t xml:space="preserve">
 Enter "na" if the visitor has no restrictions on their availability for meetings.
-Enter "morning" if they are only available up until noon.
-Enter "afternoon" if they are only available after noon.</t>
+Enter "morning" if they are only available up until 12 PM.
+Enter "afternoon" if they are only available after 12 PM.</t>
         </r>
       </text>
     </comment>
@@ -435,60 +435,6 @@
     <t>Preferred Professor Meetings</t>
   </si>
   <si>
-    <t>8:00</t>
-  </si>
-  <si>
-    <t>8:30</t>
-  </si>
-  <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>9:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>1:00</t>
-  </si>
-  <si>
-    <t>1:30</t>
-  </si>
-  <si>
-    <t>2:00</t>
-  </si>
-  <si>
-    <t>2:30</t>
-  </si>
-  <si>
-    <t>3:00</t>
-  </si>
-  <si>
-    <t>3:30</t>
-  </si>
-  <si>
-    <t>4:00</t>
-  </si>
-  <si>
-    <t>4:30</t>
-  </si>
-  <si>
     <t>Myerson</t>
   </si>
   <si>
@@ -574,12 +520,69 @@
   </si>
   <si>
     <t>Blankschtein</t>
+  </si>
+  <si>
+    <t>8:00 AM - 8:30 AM</t>
+  </si>
+  <si>
+    <t>8:30 AM - 9:00 AM</t>
+  </si>
+  <si>
+    <t>9:00 AM - 9:30 AM</t>
+  </si>
+  <si>
+    <t>9:30 AM - 10:00 AM</t>
+  </si>
+  <si>
+    <t>10:00 AM - 10:30 AM</t>
+  </si>
+  <si>
+    <t>10:30 AM - 11:00 AM</t>
+  </si>
+  <si>
+    <t>11:00 AM - 11:30 AM</t>
+  </si>
+  <si>
+    <t>11:30 AM - 12:00 PM</t>
+  </si>
+  <si>
+    <t>12:00 PM - 12:30 PM</t>
+  </si>
+  <si>
+    <t>12:30 PM - 1:00 PM</t>
+  </si>
+  <si>
+    <t>1:00 PM - 1:30 PM</t>
+  </si>
+  <si>
+    <t>1:30 PM - 2:00 PM</t>
+  </si>
+  <si>
+    <t>2:00 PM - 2:30 PM</t>
+  </si>
+  <si>
+    <t>2:30 PM - 3:00 PM</t>
+  </si>
+  <si>
+    <t>3:00 PM - 3:30 PM</t>
+  </si>
+  <si>
+    <t>4:00 PM - 4:30 PM</t>
+  </si>
+  <si>
+    <t>4:30 PM - 5:00 PM</t>
+  </si>
+  <si>
+    <t>3:30 PM - 4:00 PM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-409]h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -653,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -666,30 +669,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{84885562-6644-4E6F-8E59-6CE33CE11AC8}"/>
   </cellStyles>
   <dxfs count="26">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -863,6 +854,24 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -996,28 +1005,28 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8772860E-A35F-4DB4-AB7E-4878327950D8}" name="Table2" displayName="Table2" ref="A1:S29" totalsRowShown="0" headerRowDxfId="0" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8772860E-A35F-4DB4-AB7E-4878327950D8}" name="Table2" displayName="Table2" ref="A1:S29" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:S29" xr:uid="{2492EF56-7251-45FA-9349-35E3B2F7BAFF}"/>
   <tableColumns count="19">
     <tableColumn id="2" xr3:uid="{B3648F17-23BB-4BB7-B807-089320065C99}" name="Last Name"/>
-    <tableColumn id="3" xr3:uid="{536E974C-374F-4D40-AB25-9E4115FC3F34}" name="8:00" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{9F39D2CB-38C7-4599-B1BB-3407EAE65D45}" name="8:30" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{639E58E8-1B76-46D8-85E0-1DFFAC855BE9}" name="9:00" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{B8D06787-1BB9-4DB6-9DA6-BC16D9460201}" name="9:30" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{F6C70855-3CAB-44BD-ADCF-6031C3500F36}" name="10:00" dataDxfId="14"/>
-    <tableColumn id="8" xr3:uid="{E4835249-C877-47FA-9296-8A62BB635D30}" name="10:30" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{B44952EF-5173-4A98-989F-FA8B50BB8F3C}" name="11:00" dataDxfId="12"/>
-    <tableColumn id="10" xr3:uid="{66A16FDB-B1EF-400B-8E71-A6751F48942A}" name="11:30" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{9E646C58-8306-412E-9094-98606596475B}" name="12:00" dataDxfId="10"/>
-    <tableColumn id="12" xr3:uid="{9AE7EE0E-4F8C-4ACE-881A-7E042290D9F2}" name="12:30" dataDxfId="9"/>
-    <tableColumn id="13" xr3:uid="{3C7428E1-59D4-471A-8512-0BD22E7C7A5C}" name="1:00" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{59D6E138-2EA8-44F4-8BE0-D489BDDECBFA}" name="1:30" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{B96A809C-B4BD-40BA-9DA8-57E906222EF9}" name="2:00" dataDxfId="6"/>
-    <tableColumn id="16" xr3:uid="{F91DF61A-1185-4B0A-8CB9-0E33134FEDA6}" name="2:30" dataDxfId="5"/>
-    <tableColumn id="17" xr3:uid="{7CE56EB0-24C4-4F5E-AFEC-19B0E8A3204A}" name="3:00" dataDxfId="4"/>
-    <tableColumn id="18" xr3:uid="{003A64C2-46D6-4630-8238-DC1D0D6BF8F0}" name="3:30" dataDxfId="3"/>
-    <tableColumn id="19" xr3:uid="{7DF7F562-225F-4C33-AFB9-5E6C23C613B8}" name="4:00" dataDxfId="2"/>
-    <tableColumn id="20" xr3:uid="{C68E8F00-58D3-4999-BB45-09322457A56E}" name="4:30" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{536E974C-374F-4D40-AB25-9E4115FC3F34}" name="8:00 AM - 8:30 AM" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{9F39D2CB-38C7-4599-B1BB-3407EAE65D45}" name="8:30 AM - 9:00 AM" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{639E58E8-1B76-46D8-85E0-1DFFAC855BE9}" name="9:00 AM - 9:30 AM" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{B8D06787-1BB9-4DB6-9DA6-BC16D9460201}" name="9:30 AM - 10:00 AM" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{F6C70855-3CAB-44BD-ADCF-6031C3500F36}" name="10:00 AM - 10:30 AM" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{E4835249-C877-47FA-9296-8A62BB635D30}" name="10:30 AM - 11:00 AM" dataDxfId="12"/>
+    <tableColumn id="9" xr3:uid="{B44952EF-5173-4A98-989F-FA8B50BB8F3C}" name="11:00 AM - 11:30 AM" dataDxfId="11"/>
+    <tableColumn id="10" xr3:uid="{66A16FDB-B1EF-400B-8E71-A6751F48942A}" name="11:30 AM - 12:00 PM" dataDxfId="10"/>
+    <tableColumn id="11" xr3:uid="{9E646C58-8306-412E-9094-98606596475B}" name="12:00 PM - 12:30 PM" dataDxfId="9"/>
+    <tableColumn id="12" xr3:uid="{9AE7EE0E-4F8C-4ACE-881A-7E042290D9F2}" name="12:30 PM - 1:00 PM" dataDxfId="8"/>
+    <tableColumn id="13" xr3:uid="{3C7428E1-59D4-471A-8512-0BD22E7C7A5C}" name="1:00 PM - 1:30 PM" dataDxfId="7"/>
+    <tableColumn id="14" xr3:uid="{59D6E138-2EA8-44F4-8BE0-D489BDDECBFA}" name="1:30 PM - 2:00 PM" dataDxfId="6"/>
+    <tableColumn id="15" xr3:uid="{B96A809C-B4BD-40BA-9DA8-57E906222EF9}" name="2:00 PM - 2:30 PM" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{F91DF61A-1185-4B0A-8CB9-0E33134FEDA6}" name="2:30 PM - 3:00 PM" dataDxfId="4"/>
+    <tableColumn id="17" xr3:uid="{7CE56EB0-24C4-4F5E-AFEC-19B0E8A3204A}" name="3:00 PM - 3:30 PM" dataDxfId="3"/>
+    <tableColumn id="18" xr3:uid="{003A64C2-46D6-4630-8238-DC1D0D6BF8F0}" name="3:30 PM - 4:00 PM" dataDxfId="2"/>
+    <tableColumn id="19" xr3:uid="{7DF7F562-225F-4C33-AFB9-5E6C23C613B8}" name="4:00 PM - 4:30 PM" dataDxfId="1"/>
+    <tableColumn id="20" xr3:uid="{C68E8F00-58D3-4999-BB45-09322457A56E}" name="4:30 PM - 5:00 PM" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1322,8 +1331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACCAC94-CD1D-4934-93C4-81250977F279}">
   <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1808,91 +1817,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0147ED71-6F56-49E8-96ED-9455F601A174}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.90625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.453125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="12.81640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="13" style="5" customWidth="1"/>
-    <col min="5" max="5" width="15.26953125" style="5" customWidth="1"/>
-    <col min="6" max="16" width="8.7265625" style="5"/>
-    <col min="17" max="17" width="9.1796875" style="5" customWidth="1"/>
-    <col min="18" max="18" width="8.26953125" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="8.7265625" style="5"/>
+    <col min="1" max="1" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="23.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.08984375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="19" width="21" style="5" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="O1" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q1" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="S1" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>121</v>
-      </c>
       <c r="B2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
@@ -1907,16 +1917,16 @@
         <v>1</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L2" s="6">
         <v>1</v>
@@ -1931,21 +1941,21 @@
         <v>1</v>
       </c>
       <c r="P2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="Q2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="R2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="S2" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -1954,13 +1964,13 @@
         <v>1</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G3" s="6">
         <v>1</v>
@@ -1972,10 +1982,10 @@
         <v>1</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L3" s="6">
         <v>1</v>
@@ -2004,46 +2014,46 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="O4" s="6">
         <v>1</v>
@@ -2058,57 +2068,57 @@
         <v>1</v>
       </c>
       <c r="S4" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="L5" s="6">
         <v>1</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="Q5" s="6">
         <v>1</v>
@@ -2122,1364 +2132,1364 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
+        <v>1</v>
+      </c>
+      <c r="M6" s="6">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P6" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>1</v>
+      </c>
+      <c r="R6" s="6">
+        <v>1</v>
+      </c>
+      <c r="S6" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
+      <c r="J7" s="6">
+        <v>1</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N7" s="6">
+        <v>1</v>
+      </c>
+      <c r="O7" s="6">
+        <v>1</v>
+      </c>
+      <c r="P7" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>1</v>
+      </c>
+      <c r="R7" s="6">
+        <v>1</v>
+      </c>
+      <c r="S7" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L8" s="6">
+        <v>1</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="6">
+        <v>1</v>
+      </c>
+      <c r="P8" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>1</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6">
+        <v>1</v>
+      </c>
+      <c r="I9" s="6">
+        <v>1</v>
+      </c>
+      <c r="J9" s="6">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>1</v>
+      </c>
+      <c r="L9" s="6">
+        <v>1</v>
+      </c>
+      <c r="M9" s="6">
+        <v>1</v>
+      </c>
+      <c r="N9" s="6">
+        <v>1</v>
+      </c>
+      <c r="O9" s="6">
+        <v>1</v>
+      </c>
+      <c r="P9" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>1</v>
+      </c>
+      <c r="R9" s="6">
+        <v>1</v>
+      </c>
+      <c r="S9" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N11" s="6">
+        <v>1</v>
+      </c>
+      <c r="O11" s="6">
+        <v>1</v>
+      </c>
+      <c r="P11" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>1</v>
+      </c>
+      <c r="R11" s="6">
+        <v>1</v>
+      </c>
+      <c r="S11" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O12" s="6">
+        <v>1</v>
+      </c>
+      <c r="P12" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>1</v>
+      </c>
+      <c r="R12" s="6">
+        <v>1</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="L13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>1</v>
+      </c>
+      <c r="O13" s="6">
+        <v>1</v>
+      </c>
+      <c r="P13" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6">
+        <v>1</v>
+      </c>
+      <c r="S13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6">
+        <v>1</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>1</v>
+      </c>
+      <c r="K14" s="6">
+        <v>1</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P14" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>1</v>
+      </c>
+      <c r="R14" s="6">
+        <v>1</v>
+      </c>
+      <c r="S14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>1</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1</v>
+      </c>
+      <c r="N15" s="6">
+        <v>1</v>
+      </c>
+      <c r="O15" s="6">
+        <v>1</v>
+      </c>
+      <c r="P15" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6">
+        <v>1</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N16" s="6">
+        <v>1</v>
+      </c>
+      <c r="O16" s="6">
+        <v>1</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S16" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>1</v>
+      </c>
+      <c r="G17" s="6">
+        <v>1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P17" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <v>1</v>
+      </c>
+      <c r="S17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1</v>
+      </c>
+      <c r="N18" s="6">
+        <v>1</v>
+      </c>
+      <c r="O18" s="6">
+        <v>1</v>
+      </c>
+      <c r="P18" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>1</v>
+      </c>
+      <c r="R18" s="6">
+        <v>1</v>
+      </c>
+      <c r="S18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="G19" s="6">
+        <v>1</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
+        <v>1</v>
+      </c>
+      <c r="L19" s="6">
+        <v>1</v>
+      </c>
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1</v>
+      </c>
+      <c r="F20" s="6">
+        <v>1</v>
+      </c>
+      <c r="G20" s="6">
+        <v>1</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N20" s="6">
+        <v>1</v>
+      </c>
+      <c r="O20" s="6">
+        <v>1</v>
+      </c>
+      <c r="P20" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6">
+        <v>1</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1</v>
+      </c>
+      <c r="I21" s="6">
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>1</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1</v>
+      </c>
+      <c r="L21" s="6">
+        <v>1</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>1</v>
+      </c>
+      <c r="O21" s="6">
+        <v>1</v>
+      </c>
+      <c r="P21" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>1</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="6">
+        <v>1</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="L22" s="6">
+        <v>1</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6">
+        <v>1</v>
+      </c>
+      <c r="S22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>1</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>1</v>
-      </c>
-      <c r="R6" s="6">
-        <v>1</v>
-      </c>
-      <c r="S6" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="B24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G24" s="6">
+        <v>1</v>
+      </c>
+      <c r="H24" s="6">
+        <v>1</v>
+      </c>
+      <c r="I24" s="6">
+        <v>1</v>
+      </c>
+      <c r="J24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O24" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P24" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="6">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6">
+        <v>1</v>
+      </c>
+      <c r="S24" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>1</v>
-      </c>
-      <c r="R7" s="6">
-        <v>1</v>
-      </c>
-      <c r="S7" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="B25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1</v>
+      </c>
+      <c r="F25" s="6">
+        <v>1</v>
+      </c>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="6">
+        <v>1</v>
+      </c>
+      <c r="K25" s="6">
+        <v>1</v>
+      </c>
+      <c r="L25" s="6">
+        <v>1</v>
+      </c>
+      <c r="M25" s="6">
+        <v>1</v>
+      </c>
+      <c r="N25" s="6">
+        <v>1</v>
+      </c>
+      <c r="O25" s="6">
+        <v>1</v>
+      </c>
+      <c r="P25" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="6">
+        <v>1</v>
+      </c>
+      <c r="R25" s="6">
+        <v>1</v>
+      </c>
+      <c r="S25" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>1</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="B26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="6">
+        <v>1</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="6">
+        <v>1</v>
+      </c>
+      <c r="G26" s="6">
+        <v>1</v>
+      </c>
+      <c r="H26" s="6">
+        <v>1</v>
+      </c>
+      <c r="I26" s="6">
+        <v>1</v>
+      </c>
+      <c r="J26" s="6">
+        <v>1</v>
+      </c>
+      <c r="K26" s="6">
+        <v>1</v>
+      </c>
+      <c r="L26" s="6">
+        <v>1</v>
+      </c>
+      <c r="M26" s="6">
+        <v>1</v>
+      </c>
+      <c r="N26" s="6">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>1</v>
+      </c>
+      <c r="P26" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="6">
+        <v>1</v>
+      </c>
+      <c r="R26" s="6">
+        <v>1</v>
+      </c>
+      <c r="S26" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>1</v>
-      </c>
-      <c r="R9" s="6">
-        <v>1</v>
-      </c>
-      <c r="S9" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="B28" s="6">
+        <v>1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>1</v>
+      </c>
+      <c r="D28" s="6">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="L28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="N28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="P28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q28" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="R28" s="6">
+        <v>1</v>
+      </c>
+      <c r="S28" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>1</v>
-      </c>
-      <c r="R11" s="6">
-        <v>1</v>
-      </c>
-      <c r="S11" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>1</v>
-      </c>
-      <c r="R12" s="6">
-        <v>1</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="6">
-        <v>1</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>1</v>
-      </c>
-      <c r="R13" s="6">
-        <v>1</v>
-      </c>
-      <c r="S13" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C14" s="6">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P14" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>1</v>
-      </c>
-      <c r="R14" s="6">
-        <v>1</v>
-      </c>
-      <c r="S14" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>1</v>
-      </c>
-      <c r="R15" s="6">
-        <v>1</v>
-      </c>
-      <c r="S15" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R16" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S16" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="B17" s="6">
-        <v>1</v>
-      </c>
-      <c r="C17" s="6">
-        <v>1</v>
-      </c>
-      <c r="D17" s="6">
-        <v>1</v>
-      </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P17" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>1</v>
-      </c>
-      <c r="R17" s="6">
-        <v>1</v>
-      </c>
-      <c r="S17" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>1</v>
-      </c>
-      <c r="R18" s="6">
-        <v>1</v>
-      </c>
-      <c r="S18" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6">
-        <v>1</v>
-      </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R19" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S19" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>1</v>
-      </c>
-      <c r="R20" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S20" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="6">
-        <v>1</v>
-      </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>1</v>
-      </c>
-      <c r="R21" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S21" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="6">
-        <v>1</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="6">
-        <v>1</v>
-      </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O22" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P22" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>1</v>
-      </c>
-      <c r="R22" s="6">
-        <v>1</v>
-      </c>
-      <c r="S22" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>1</v>
-      </c>
-      <c r="R23" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S23" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G24" s="6">
-        <v>1</v>
-      </c>
-      <c r="H24" s="6">
-        <v>1</v>
-      </c>
-      <c r="I24" s="6">
-        <v>1</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O24" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P24" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>1</v>
-      </c>
-      <c r="R24" s="6">
-        <v>1</v>
-      </c>
-      <c r="S24" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="6">
-        <v>1</v>
-      </c>
-      <c r="F25" s="6">
-        <v>1</v>
-      </c>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I25" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J25" s="6">
-        <v>1</v>
-      </c>
-      <c r="K25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>1</v>
-      </c>
-      <c r="M25" s="6">
-        <v>1</v>
-      </c>
-      <c r="N25" s="6">
-        <v>1</v>
-      </c>
-      <c r="O25" s="6">
-        <v>1</v>
-      </c>
-      <c r="P25" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>1</v>
-      </c>
-      <c r="R25" s="6">
-        <v>1</v>
-      </c>
-      <c r="S25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="6">
-        <v>1</v>
-      </c>
-      <c r="E26" s="6">
-        <v>1</v>
-      </c>
-      <c r="F26" s="6">
-        <v>1</v>
-      </c>
-      <c r="G26" s="6">
-        <v>1</v>
-      </c>
-      <c r="H26" s="6">
-        <v>1</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1</v>
-      </c>
-      <c r="J26" s="6">
-        <v>1</v>
-      </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>1</v>
-      </c>
-      <c r="M26" s="6">
-        <v>1</v>
-      </c>
-      <c r="N26" s="6">
-        <v>1</v>
-      </c>
-      <c r="O26" s="6">
-        <v>1</v>
-      </c>
-      <c r="P26" s="6">
-        <v>1</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>1</v>
-      </c>
-      <c r="R26" s="6">
-        <v>1</v>
-      </c>
-      <c r="S26" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R27" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27" s="6" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="6">
-        <v>1</v>
-      </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="M28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="O28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="P28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q28" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="R28" s="6">
-        <v>1</v>
-      </c>
-      <c r="S28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
